--- a/tut06/output/2001ME47.xlsx
+++ b/tut06/output/2001ME47.xlsx
@@ -493,7 +493,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -757,7 +757,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
